--- a/output/61/Расписание_Итог_12.xlsx
+++ b/output/61/Расписание_Итог_12.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="23040" windowHeight="10500" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12180" tabRatio="924" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Расписание" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <numFmt numFmtId="166" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="43">
     <font>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -39,21 +39,18 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <b val="1"/>
       <color indexed="8"/>
       <sz val="12"/>
@@ -61,7 +58,6 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
       <sz val="12"/>
     </font>
     <font>
@@ -74,37 +70,12 @@
     <font>
       <name val="Arial"/>
       <charset val="204"/>
-      <family val="2"/>
       <b val="1"/>
       <sz val="12"/>
     </font>
     <font>
       <name val="Times New Roman"/>
       <charset val="0"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
       <color indexed="8"/>
       <sz val="12"/>
     </font>
@@ -128,12 +99,6 @@
       <sz val="12"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
       <color indexed="8"/>
@@ -155,45 +120,8 @@
     <font>
       <name val="Times New Roman"/>
       <charset val="204"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Times New Roman"/>
-      <charset val="204"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="204"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -229,6 +157,13 @@
       <charset val="0"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <name val="Verdana"/>
@@ -381,18 +316,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="37">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149998474074526"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1475,137 +1404,137 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="41" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="42" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="43" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="8" borderId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="45" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="44" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="10" borderId="46" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="47" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="48" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="34" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="35" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="36" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="43" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="7" borderId="44" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="45" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="44" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="9" borderId="46" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="47" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="48" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="34" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="35" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="36" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="254">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1732,319 +1661,67 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2053,10 +1730,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2065,17 +1739,46 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
@@ -2083,214 +1786,167 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="33" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="34" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="35" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="36" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2846,9 +2502,9 @@
       <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.888888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="243">
+    <row r="1" ht="14.4" customHeight="1" s="146">
       <c r="A1" s="28" t="inlineStr">
         <is>
           <t>Наряд</t>
@@ -2864,412 +2520,412 @@
           <t>1 смена</t>
         </is>
       </c>
-      <c r="D1" s="244" t="n"/>
-      <c r="E1" s="244" t="n"/>
-      <c r="F1" s="244" t="n"/>
-      <c r="G1" s="245" t="n"/>
+      <c r="D1" s="147" t="n"/>
+      <c r="E1" s="147" t="n"/>
+      <c r="F1" s="147" t="n"/>
+      <c r="G1" s="148" t="n"/>
       <c r="H1" s="28" t="inlineStr">
         <is>
           <t>2 смена</t>
         </is>
       </c>
-      <c r="I1" s="244" t="n"/>
-      <c r="J1" s="244" t="n"/>
-      <c r="K1" s="244" t="n"/>
-      <c r="L1" s="245" t="n"/>
+      <c r="I1" s="147" t="n"/>
+      <c r="J1" s="147" t="n"/>
+      <c r="K1" s="147" t="n"/>
+      <c r="L1" s="148" t="n"/>
     </row>
-    <row r="2" s="243">
-      <c r="A2" s="246" t="n"/>
-      <c r="B2" s="246" t="n"/>
+    <row r="2" ht="14.4" customHeight="1" s="146">
+      <c r="A2" s="149" t="n"/>
+      <c r="B2" s="149" t="n"/>
       <c r="C2" s="28" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="D2" s="244" t="n"/>
-      <c r="E2" s="245" t="n"/>
+      <c r="D2" s="147" t="n"/>
+      <c r="E2" s="148" t="n"/>
       <c r="F2" s="28" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="G2" s="245" t="n"/>
+      <c r="G2" s="148" t="n"/>
       <c r="H2" s="28" t="inlineStr">
         <is>
           <t>Таб. №</t>
         </is>
       </c>
-      <c r="I2" s="244" t="n"/>
-      <c r="J2" s="245" t="n"/>
+      <c r="I2" s="147" t="n"/>
+      <c r="J2" s="148" t="n"/>
       <c r="K2" s="28" t="inlineStr">
         <is>
           <t>Нач./Оконч.</t>
         </is>
       </c>
-      <c r="L2" s="245" t="n"/>
+      <c r="L2" s="148" t="n"/>
     </row>
-    <row r="4" ht="16.35" customHeight="1" s="243">
-      <c r="A4" s="156" t="inlineStr">
+    <row r="4" ht="16.5" customHeight="1" s="146">
+      <c r="A4" s="30" t="inlineStr">
         <is>
           <t>Маршрут 61         Суздальский пр - ст.м. Выборгская. Смены на Суздальском пр.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="15.6" customHeight="1" s="243">
-      <c r="A5" s="247" t="inlineStr">
+    <row r="5" ht="15.75" customHeight="1" s="146">
+      <c r="A5" s="150" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B5" s="248" t="n"/>
-      <c r="C5" s="89" t="inlineStr">
-        <is>
-          <t>20607</t>
-        </is>
-      </c>
-      <c r="D5" s="249" t="n"/>
-      <c r="E5" s="249" t="n"/>
-      <c r="F5" s="90" t="inlineStr">
+      <c r="B5" s="151" t="n"/>
+      <c r="C5" s="33" t="inlineStr">
+        <is>
+          <t>11694</t>
+        </is>
+      </c>
+      <c r="D5" s="152" t="n"/>
+      <c r="E5" s="152" t="n"/>
+      <c r="F5" s="34" t="inlineStr">
         <is>
           <t>04:43</t>
         </is>
       </c>
-      <c r="G5" s="90" t="inlineStr">
+      <c r="G5" s="34" t="inlineStr">
         <is>
           <t>12:07</t>
         </is>
       </c>
-      <c r="H5" s="89" t="inlineStr">
-        <is>
-          <t>20043</t>
-        </is>
-      </c>
-      <c r="I5" s="249" t="n"/>
-      <c r="J5" s="249" t="n"/>
-      <c r="K5" s="90" t="inlineStr">
+      <c r="H5" s="33" t="inlineStr">
+        <is>
+          <t>65120</t>
+        </is>
+      </c>
+      <c r="I5" s="152" t="n"/>
+      <c r="J5" s="152" t="n"/>
+      <c r="K5" s="34" t="inlineStr">
         <is>
           <t>12:07</t>
         </is>
       </c>
-      <c r="L5" s="124" t="inlineStr">
+      <c r="L5" s="42" t="inlineStr">
         <is>
           <t>20:45</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="16.35" customHeight="1" s="243">
-      <c r="A6" s="250" t="n"/>
-      <c r="B6" s="251" t="n"/>
-      <c r="C6" s="92" t="n"/>
-      <c r="D6" s="252" t="n"/>
-      <c r="E6" s="252" t="n"/>
-      <c r="F6" s="93" t="inlineStr">
+    <row r="6" ht="16.5" customHeight="1" s="146">
+      <c r="A6" s="153" t="n"/>
+      <c r="B6" s="154" t="n"/>
+      <c r="C6" s="37" t="n"/>
+      <c r="D6" s="155" t="n"/>
+      <c r="E6" s="155" t="n"/>
+      <c r="F6" s="38" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="G6" s="93" t="inlineStr">
+      <c r="G6" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="H6" s="92" t="n"/>
-      <c r="I6" s="252" t="n"/>
-      <c r="J6" s="252" t="n"/>
-      <c r="K6" s="93" t="inlineStr">
+      <c r="H6" s="37" t="n"/>
+      <c r="I6" s="155" t="n"/>
+      <c r="J6" s="155" t="n"/>
+      <c r="K6" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="L6" s="125" t="inlineStr">
+      <c r="L6" s="43" t="inlineStr">
         <is>
           <t>9,8</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15.6" customHeight="1" s="243">
-      <c r="A7" s="247" t="inlineStr">
+    <row r="7" ht="15.75" customHeight="1" s="146">
+      <c r="A7" s="150" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B7" s="91" t="n"/>
-      <c r="C7" s="89" t="inlineStr">
-        <is>
-          <t>21809</t>
-        </is>
-      </c>
-      <c r="D7" s="249" t="n"/>
-      <c r="E7" s="249" t="n"/>
-      <c r="F7" s="90" t="inlineStr">
+      <c r="B7" s="40" t="n"/>
+      <c r="C7" s="33" t="inlineStr">
+        <is>
+          <t>54676</t>
+        </is>
+      </c>
+      <c r="D7" s="152" t="n"/>
+      <c r="E7" s="152" t="n"/>
+      <c r="F7" s="34" t="inlineStr">
         <is>
           <t>05:27</t>
         </is>
       </c>
-      <c r="G7" s="90" t="inlineStr">
+      <c r="G7" s="34" t="inlineStr">
         <is>
           <t>14:01</t>
         </is>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>20549</t>
-        </is>
-      </c>
-      <c r="I7" s="249" t="n"/>
-      <c r="J7" s="249" t="n"/>
-      <c r="K7" s="90" t="inlineStr">
+          <t>13458</t>
+        </is>
+      </c>
+      <c r="I7" s="152" t="n"/>
+      <c r="J7" s="152" t="n"/>
+      <c r="K7" s="34" t="inlineStr">
         <is>
           <t>16:25</t>
         </is>
       </c>
-      <c r="L7" s="124" t="inlineStr">
+      <c r="L7" s="42" t="inlineStr">
         <is>
           <t>00:55</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="15.6" customHeight="1" s="243">
-      <c r="A8" s="250" t="n"/>
-      <c r="B8" s="252" t="n"/>
-      <c r="C8" s="92" t="n"/>
-      <c r="D8" s="252" t="n"/>
-      <c r="E8" s="252" t="n"/>
-      <c r="F8" s="93" t="inlineStr">
+    <row r="8" ht="15.75" customHeight="1" s="146">
+      <c r="A8" s="153" t="n"/>
+      <c r="B8" s="155" t="n"/>
+      <c r="C8" s="37" t="n"/>
+      <c r="D8" s="155" t="n"/>
+      <c r="E8" s="155" t="n"/>
+      <c r="F8" s="38" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
-      <c r="G8" s="93" t="inlineStr">
+      <c r="G8" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="H8" s="92" t="n"/>
-      <c r="I8" s="252" t="n"/>
-      <c r="J8" s="252" t="n"/>
-      <c r="K8" s="93" t="inlineStr">
+      <c r="H8" s="37" t="n"/>
+      <c r="I8" s="155" t="n"/>
+      <c r="J8" s="155" t="n"/>
+      <c r="K8" s="38" t="inlineStr">
         <is>
           <t>9,1</t>
         </is>
       </c>
-      <c r="L8" s="125" t="inlineStr">
+      <c r="L8" s="43" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="15.6" customHeight="1" s="243">
-      <c r="A9" s="247" t="inlineStr">
+    <row r="9" ht="15.75" customHeight="1" s="146">
+      <c r="A9" s="150" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B9" s="253" t="n"/>
-      <c r="C9" s="89" t="inlineStr">
-        <is>
-          <t>22719</t>
-        </is>
-      </c>
-      <c r="D9" s="249" t="n"/>
-      <c r="E9" s="249" t="n"/>
-      <c r="F9" s="90" t="inlineStr">
+      <c r="B9" s="156" t="n"/>
+      <c r="C9" s="33" t="inlineStr">
+        <is>
+          <t>54583</t>
+        </is>
+      </c>
+      <c r="D9" s="152" t="n"/>
+      <c r="E9" s="152" t="n"/>
+      <c r="F9" s="34" t="inlineStr">
         <is>
           <t>05:40</t>
         </is>
       </c>
-      <c r="G9" s="90" t="inlineStr">
+      <c r="G9" s="34" t="inlineStr">
         <is>
           <t>13:06</t>
         </is>
       </c>
-      <c r="H9" s="89" t="inlineStr">
-        <is>
-          <t>23072</t>
-        </is>
-      </c>
-      <c r="I9" s="249" t="n"/>
-      <c r="J9" s="249" t="n"/>
-      <c r="K9" s="90" t="inlineStr">
+      <c r="H9" s="33" t="inlineStr">
+        <is>
+          <t>54011</t>
+        </is>
+      </c>
+      <c r="I9" s="152" t="n"/>
+      <c r="J9" s="152" t="n"/>
+      <c r="K9" s="34" t="inlineStr">
         <is>
           <t>13:06</t>
         </is>
       </c>
-      <c r="L9" s="124" t="inlineStr">
+      <c r="L9" s="42" t="inlineStr">
         <is>
           <t>21:32</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="15.6" customHeight="1" s="243">
-      <c r="A10" s="250" t="n"/>
-      <c r="B10" s="252" t="n"/>
-      <c r="C10" s="92" t="n"/>
-      <c r="D10" s="252" t="n"/>
-      <c r="E10" s="252" t="n"/>
-      <c r="F10" s="93" t="inlineStr">
+    <row r="10" ht="15.75" customHeight="1" s="146">
+      <c r="A10" s="153" t="n"/>
+      <c r="B10" s="155" t="n"/>
+      <c r="C10" s="37" t="n"/>
+      <c r="D10" s="155" t="n"/>
+      <c r="E10" s="155" t="n"/>
+      <c r="F10" s="38" t="inlineStr">
         <is>
           <t>7,8</t>
         </is>
       </c>
-      <c r="G10" s="93" t="inlineStr">
+      <c r="G10" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="H10" s="92" t="n"/>
-      <c r="I10" s="252" t="n"/>
-      <c r="J10" s="252" t="n"/>
-      <c r="K10" s="93" t="inlineStr">
+      <c r="H10" s="37" t="n"/>
+      <c r="I10" s="155" t="n"/>
+      <c r="J10" s="155" t="n"/>
+      <c r="K10" s="38" t="inlineStr">
         <is>
           <t>8,8</t>
         </is>
       </c>
-      <c r="L10" s="125" t="inlineStr">
+      <c r="L10" s="43" t="inlineStr">
         <is>
           <t>9,6</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="15.6" customHeight="1" s="243">
-      <c r="A11" s="247" t="inlineStr">
+    <row r="11" ht="15.75" customHeight="1" s="146">
+      <c r="A11" s="150" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B11" s="253" t="n"/>
-      <c r="C11" s="89" t="inlineStr">
-        <is>
-          <t>23053</t>
-        </is>
-      </c>
-      <c r="D11" s="249" t="n"/>
-      <c r="E11" s="249" t="n"/>
-      <c r="F11" s="90" t="inlineStr">
+      <c r="B11" s="156" t="n"/>
+      <c r="C11" s="33" t="inlineStr">
+        <is>
+          <t>65087</t>
+        </is>
+      </c>
+      <c r="D11" s="152" t="n"/>
+      <c r="E11" s="152" t="n"/>
+      <c r="F11" s="34" t="inlineStr">
         <is>
           <t>05:49</t>
         </is>
       </c>
-      <c r="G11" s="90" t="inlineStr">
+      <c r="G11" s="34" t="inlineStr">
         <is>
           <t>14:02</t>
         </is>
       </c>
-      <c r="H11" s="89" t="inlineStr">
-        <is>
-          <t>23277</t>
-        </is>
-      </c>
-      <c r="I11" s="249" t="n"/>
-      <c r="J11" s="249" t="n"/>
-      <c r="K11" s="90" t="inlineStr">
+      <c r="H11" s="33" t="inlineStr">
+        <is>
+          <t>9447</t>
+        </is>
+      </c>
+      <c r="I11" s="152" t="n"/>
+      <c r="J11" s="152" t="n"/>
+      <c r="K11" s="34" t="inlineStr">
         <is>
           <t>14:02</t>
         </is>
       </c>
-      <c r="L11" s="124" t="inlineStr">
+      <c r="L11" s="42" t="inlineStr">
         <is>
           <t>22:05</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="15.6" customHeight="1" s="243">
-      <c r="A12" s="250" t="n"/>
-      <c r="B12" s="252" t="n"/>
-      <c r="C12" s="92" t="n"/>
-      <c r="D12" s="252" t="n"/>
-      <c r="E12" s="252" t="n"/>
-      <c r="F12" s="93" t="inlineStr">
+    <row r="12" ht="15.75" customHeight="1" s="146">
+      <c r="A12" s="153" t="n"/>
+      <c r="B12" s="155" t="n"/>
+      <c r="C12" s="37" t="n"/>
+      <c r="D12" s="155" t="n"/>
+      <c r="E12" s="155" t="n"/>
+      <c r="F12" s="38" t="inlineStr">
         <is>
           <t>8,6</t>
         </is>
       </c>
-      <c r="G12" s="93" t="inlineStr">
+      <c r="G12" s="38" t="inlineStr">
         <is>
           <t>9,4</t>
         </is>
       </c>
-      <c r="H12" s="92" t="n"/>
-      <c r="I12" s="252" t="n"/>
-      <c r="J12" s="252" t="n"/>
-      <c r="K12" s="93" t="inlineStr">
+      <c r="H12" s="37" t="n"/>
+      <c r="I12" s="155" t="n"/>
+      <c r="J12" s="155" t="n"/>
+      <c r="K12" s="38" t="inlineStr">
         <is>
           <t>8,5</t>
         </is>
       </c>
-      <c r="L12" s="125" t="inlineStr">
+      <c r="L12" s="43" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="15.6" customHeight="1" s="243">
-      <c r="A13" s="247" t="inlineStr">
+    <row r="13" ht="15.75" customHeight="1" s="146">
+      <c r="A13" s="150" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B13" s="253" t="n"/>
-      <c r="C13" s="89" t="inlineStr">
-        <is>
-          <t>25158</t>
-        </is>
-      </c>
-      <c r="D13" s="249" t="n"/>
-      <c r="E13" s="249" t="n"/>
-      <c r="F13" s="90" t="inlineStr">
+      <c r="B13" s="156" t="n"/>
+      <c r="C13" s="33" t="inlineStr">
+        <is>
+          <t>54392</t>
+        </is>
+      </c>
+      <c r="D13" s="152" t="n"/>
+      <c r="E13" s="152" t="n"/>
+      <c r="F13" s="34" t="inlineStr">
         <is>
           <t>06:00</t>
         </is>
       </c>
-      <c r="G13" s="90" t="inlineStr">
+      <c r="G13" s="34" t="inlineStr">
         <is>
           <t>13:40</t>
         </is>
       </c>
-      <c r="H13" s="89" t="inlineStr">
-        <is>
-          <t>25190</t>
-        </is>
-      </c>
-      <c r="I13" s="249" t="n"/>
-      <c r="J13" s="249" t="n"/>
-      <c r="K13" s="90" t="inlineStr">
+      <c r="H13" s="33" t="inlineStr">
+        <is>
+          <t>65203</t>
+        </is>
+      </c>
+      <c r="I13" s="152" t="n"/>
+      <c r="J13" s="152" t="n"/>
+      <c r="K13" s="34" t="inlineStr">
         <is>
           <t>13:40</t>
         </is>
       </c>
-      <c r="L13" s="124" t="inlineStr">
+      <c r="L13" s="42" t="inlineStr">
         <is>
           <t>21:42</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="15.6" customHeight="1" s="243">
-      <c r="A14" s="250" t="n"/>
-      <c r="B14" s="252" t="n"/>
-      <c r="C14" s="92" t="n"/>
-      <c r="D14" s="252" t="n"/>
-      <c r="E14" s="252" t="n"/>
-      <c r="F14" s="93" t="inlineStr">
+    <row r="14" ht="15.75" customHeight="1" s="146">
+      <c r="A14" s="153" t="n"/>
+      <c r="B14" s="155" t="n"/>
+      <c r="C14" s="37" t="n"/>
+      <c r="D14" s="155" t="n"/>
+      <c r="E14" s="155" t="n"/>
+      <c r="F14" s="38" t="inlineStr">
         <is>
           <t>8,1</t>
         </is>
       </c>
-      <c r="G14" s="93" t="inlineStr">
+      <c r="G14" s="38" t="inlineStr">
         <is>
           <t>8,9</t>
         </is>
       </c>
-      <c r="H14" s="92" t="n"/>
-      <c r="I14" s="252" t="n"/>
-      <c r="J14" s="252" t="n"/>
-      <c r="K14" s="93" t="inlineStr">
+      <c r="H14" s="37" t="n"/>
+      <c r="I14" s="155" t="n"/>
+      <c r="J14" s="155" t="n"/>
+      <c r="K14" s="38" t="inlineStr">
         <is>
           <t>8,4</t>
         </is>
       </c>
-      <c r="L14" s="125" t="inlineStr">
+      <c r="L14" s="43" t="inlineStr">
         <is>
           <t>9,2</t>
         </is>
